--- a/outputs-r202/train-c__Methanobacteria.xlsx
+++ b/outputs-r202/train-c__Methanobacteria.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
+    <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1012">
   <si>
     <t>Row</t>
   </si>
@@ -1538,6 +1539,1518 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494495.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494495.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509095.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002839705.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002839705.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491285.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491285.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319985.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319985.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000016525.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000016525.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000016525.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000016525.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000145295.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000145295.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000145295.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001477655.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095815.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_5.fasta</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +3071,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1568,14 +3081,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8666,4 +10183,7089 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D505"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/outputs-r202/train-c__Methanobacteria.xlsx
+++ b/outputs-r202/train-c__Methanobacteria.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
+    <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1516">
   <si>
     <t>Row</t>
   </si>
@@ -3051,6 +3052,1518 @@
   </si>
   <si>
     <t>RS_GCF_900769095.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_000309865.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001507955.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067565.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494495.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494495.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494885.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496065.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002496805.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509095.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509095.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003161815.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162115.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003164415.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266065.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266075.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266145.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003315655.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491285.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491305.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003584625.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_004553595.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009776495.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011370395.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012840175.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013330915.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013403005.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313645.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314615.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314635.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314695.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314695.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314695.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314695.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314695.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900316895.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317865.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900318035.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319535.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319985.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319985.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900319985.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320515.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320955.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900322125.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764015.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764455.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768765.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902769175.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902770715.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902771435.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774605.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902774685.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777885.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902782595.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785855.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902788255.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902789505.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902794475.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902796575.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797085.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008645.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000012545.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000016525.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000145295.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000145295.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166095.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744455.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000828575.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001477655.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001477655.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001477655.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001548675.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639275.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639295.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639295.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639295.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639295.1_7.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639295.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002072215.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002252585.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111605.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003264935.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003268005.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003814835.1_9.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095815.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095815.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095815.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103415.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900114585.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_15.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_10.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_15.fasta</t>
   </si>
 </sst>
 </file>
@@ -3071,7 +4584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3083,16 +4596,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17268,4 +18785,7089 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D505"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="22" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B455">
+        <v>1</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>